--- a/Files/Banci_Romania_IBAN.xlsx
+++ b/Files/Banci_Romania_IBAN.xlsx
@@ -61,7 +61,7 @@
     <t>Banca Transilvania</t>
   </si>
   <si>
-    <t>^RO\d{2}BTRL.{15}$</t>
+    <t>^RO\d{2}BTRL[A-Z0-9]{16}$</t>
   </si>
   <si>
     <t>RO49BTRL1234567890123456</t>
@@ -439,7 +439,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="32.86"/>
-    <col customWidth="1" min="2" max="2" width="23.0"/>
+    <col customWidth="1" min="2" max="2" width="26.86"/>
     <col customWidth="1" min="3" max="3" width="29.57"/>
     <col customWidth="1" min="4" max="26" width="8.71"/>
   </cols>
